--- a/output/fit_clients/fit_round_165.xlsx
+++ b/output/fit_clients/fit_round_165.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1902923458.36555</v>
+        <v>2445521035.696712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09235065666769036</v>
+        <v>0.07195869336979131</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04374874060369641</v>
+        <v>0.04040774622095901</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>951461711.724267</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1742503706.429927</v>
+        <v>2185699829.343767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1217825989753542</v>
+        <v>0.1847196359666322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03465775827945609</v>
+        <v>0.0491948469868298</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>871251853.3607413</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4476794740.625529</v>
+        <v>3562330477.422508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1303590949677979</v>
+        <v>0.1568671271692565</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02980466774697698</v>
+        <v>0.03051435199630658</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2238397418.23098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2626850816.433244</v>
+        <v>3325533698.58087</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0837630724180928</v>
+        <v>0.1075949396675221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03199382586160914</v>
+        <v>0.04828544642011234</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1313425502.743091</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2317237498.841692</v>
+        <v>2541789785.542227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1032921125742761</v>
+        <v>0.1065579515742753</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03531361732856357</v>
+        <v>0.0504977190927543</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1158618744.6421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2873850046.014837</v>
+        <v>3027376015.305625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06489810241078649</v>
+        <v>0.06357827658471053</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03918261442086294</v>
+        <v>0.04405084991141407</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1436924999.997519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2895389115.047572</v>
+        <v>3762992529.928046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1538853115520736</v>
+        <v>0.1577412653048407</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03226697843852902</v>
+        <v>0.02734915061732824</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>52</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1447694604.308448</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1658304554.209982</v>
+        <v>1428666891.439606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1692186140255426</v>
+        <v>0.1917975761169016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02532749791967939</v>
+        <v>0.03118775248989943</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>829152351.0778456</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4262144713.884871</v>
+        <v>5519879365.958655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1470036651333432</v>
+        <v>0.2046728004027397</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03964905420960575</v>
+        <v>0.04204599481145204</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>69</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2131072399.08293</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2744609292.416673</v>
+        <v>3366963338.899289</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1559645214107416</v>
+        <v>0.1881822285755403</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04348748100858275</v>
+        <v>0.03865127971932659</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>68</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1372304571.286542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3260720292.613401</v>
+        <v>2160535511.247185</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1381505678674134</v>
+        <v>0.1736487100295609</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04157445359187179</v>
+        <v>0.0432404193805087</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>57</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1630360188.157871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5072403353.108211</v>
+        <v>4801029423.726445</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06910549374268349</v>
+        <v>0.07664083410213432</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0310755357247766</v>
+        <v>0.02468549687187225</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2536201676.977991</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2811616368.197093</v>
+        <v>2945023723.384718</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1255217998121591</v>
+        <v>0.1644054873611739</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03538347411608064</v>
+        <v>0.02778481523882034</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>53</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1405808232.151096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1316508801.099492</v>
+        <v>1250436490.857301</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0708021842902591</v>
+        <v>0.1053383819496231</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04398630369237282</v>
+        <v>0.03442488715814538</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>658254444.4194976</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1874270562.794672</v>
+        <v>2226289199.974702</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064740424246371</v>
+        <v>0.1102198921917751</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04170349536896479</v>
+        <v>0.04762625960399129</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>937135368.0949935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4500553918.337711</v>
+        <v>4284197605.359057</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11706007871639</v>
+        <v>0.1504271883954792</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0478725824144495</v>
+        <v>0.03659788325954808</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2250276968.985715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2970811764.235071</v>
+        <v>3089833016.144819</v>
       </c>
       <c r="F18" t="n">
-        <v>0.141950005496233</v>
+        <v>0.1702306822194863</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02121078901035608</v>
+        <v>0.02298380827340124</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>53</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1485405914.435451</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1175777332.332865</v>
+        <v>843746207.4325943</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1334257247718273</v>
+        <v>0.1826139412354439</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02657729607693827</v>
+        <v>0.02299098303532368</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>587888738.1607081</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2746597834.700597</v>
+        <v>2668539457.953054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1305680310102663</v>
+        <v>0.11229026072169</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0303803492892137</v>
+        <v>0.0275041186192929</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1373298864.146922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1668931349.602887</v>
+        <v>2638538348.795063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09085073044329124</v>
+        <v>0.1018946318631324</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03342852350403482</v>
+        <v>0.03729535766788444</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>834465742.3969057</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3681513013.380328</v>
+        <v>2716900713.995815</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09756140510057015</v>
+        <v>0.1284337121004737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03987849308729559</v>
+        <v>0.0360324918510579</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1840756527.380577</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1345050933.627411</v>
+        <v>1512064118.80792</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1254429430809058</v>
+        <v>0.1620381802656189</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04637686052056542</v>
+        <v>0.04932059058804894</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>672525478.8264457</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2860484110.099254</v>
+        <v>3621171665.883982</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0904745416136018</v>
+        <v>0.1115977470496291</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02795181190282936</v>
+        <v>0.03494080654573919</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>48</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1430242099.636499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>959257384.0395497</v>
+        <v>915913114.3582751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1226418628540896</v>
+        <v>0.1016793021420833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02774508935949805</v>
+        <v>0.02586988628679176</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>479628765.344132</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1027906549.006518</v>
+        <v>1112458136.673228</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174663634489614</v>
+        <v>0.09828072625462599</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03542813758830099</v>
+        <v>0.02483050246278615</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>513953253.4282669</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3081282329.569221</v>
+        <v>3167743656.583215</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148127313553093</v>
+        <v>0.1103418836302184</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02031800468348644</v>
+        <v>0.02546789545420688</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>38</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1540641220.568866</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2461982291.661586</v>
+        <v>3762370119.160037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1029599163378165</v>
+        <v>0.1227582451057268</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03231001843224424</v>
+        <v>0.03201419953175005</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>53</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1230991110.339818</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4050598958.716713</v>
+        <v>4211605648.418107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1109602451516343</v>
+        <v>0.1372414030703279</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04520129826127331</v>
+        <v>0.04428569312391945</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>76</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2025299492.639855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1632797282.471623</v>
+        <v>2205279998.261502</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1185619657918667</v>
+        <v>0.1199850579107707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02436935316439156</v>
+        <v>0.02908435816016243</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>816398636.872008</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1143144423.706482</v>
+        <v>944297039.4862113</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07382035251136146</v>
+        <v>0.1076062255322244</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05000390804891256</v>
+        <v>0.04368211334160936</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>571572176.6586668</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1390025140.110895</v>
+        <v>1525974647.307982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08555477497918931</v>
+        <v>0.1197419307762872</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03715300365094976</v>
+        <v>0.0248123922634699</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>695012615.6109719</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3039707814.380414</v>
+        <v>3109609305.045528</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1748444380134299</v>
+        <v>0.1962185523928242</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0584204202541515</v>
+        <v>0.04923799881198467</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1519853899.398089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1012143508.4696</v>
+        <v>1163807399.991565</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07840397464800698</v>
+        <v>0.08680895758016038</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02443570140683875</v>
+        <v>0.02186468733008561</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>506071790.0731857</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>992977960.2250583</v>
+        <v>1312144939.233439</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09016097032050918</v>
+        <v>0.104958562775888</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0317319922000342</v>
+        <v>0.03759135507320462</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>496489000.1966296</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2970584056.795282</v>
+        <v>2984654339.133355</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1346731897033816</v>
+        <v>0.1495499709917693</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01993275452270911</v>
+        <v>0.01745070519784572</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1485292012.652494</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2499189524.906959</v>
+        <v>2422042264.656336</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1009240690499792</v>
+        <v>0.09316930386302048</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03009705527959553</v>
+        <v>0.03744136635529581</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>46</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1249594858.401061</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1619850737.062209</v>
+        <v>2031910221.519643</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1199578139113145</v>
+        <v>0.1196449487159635</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03502124461428692</v>
+        <v>0.03781172541197586</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>809925400.8219888</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379672815.034634</v>
+        <v>1875231328.202071</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1296558835515742</v>
+        <v>0.1226052568455532</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0211472205774526</v>
+        <v>0.03125612895942907</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>689836496.1932642</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1304771780.253952</v>
+        <v>1430369735.723351</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1420881718387226</v>
+        <v>0.1085872938227319</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05839973048801673</v>
+        <v>0.05665288733682159</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>652385905.1688337</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2039794077.923554</v>
+        <v>2325727566.35524</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1509630628075889</v>
+        <v>0.1106631681876875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03831594872551448</v>
+        <v>0.03518477069960871</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>43</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1019897109.239045</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4362014096.262569</v>
+        <v>2917951323.020658</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1251922632807058</v>
+        <v>0.1061260119206056</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04579739872435763</v>
+        <v>0.04232359679973806</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>58</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2181007102.284304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1991020738.394416</v>
+        <v>2028424293.237565</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1941107427793752</v>
+        <v>0.1269932349229925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01908472844311898</v>
+        <v>0.01831418421937132</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57</v>
-      </c>
-      <c r="J43" t="n">
-        <v>995510469.0026699</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1733480490.132387</v>
+        <v>1906304055.582107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1002457119065776</v>
+        <v>0.07052956732748415</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02975086273029826</v>
+        <v>0.03438542466741419</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>866740298.1899986</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2391297664.718266</v>
+        <v>2459022239.630087</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1534944902961515</v>
+        <v>0.180587148985462</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03960745015405215</v>
+        <v>0.03966217455072681</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1195648862.601755</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3743351034.910463</v>
+        <v>5305151622.995098</v>
       </c>
       <c r="F46" t="n">
-        <v>0.132271691574165</v>
+        <v>0.1537905856931272</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04131532134497932</v>
+        <v>0.04193735594411933</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>59</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1871675472.261377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4573316332.005677</v>
+        <v>5150952351.336782</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508657491173718</v>
+        <v>0.1663742946785676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05908177419687645</v>
+        <v>0.03908917301206345</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>44</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2286658197.622554</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4270341107.050006</v>
+        <v>4111107665.023966</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1012109279689677</v>
+        <v>0.08113687636589358</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02939459173778955</v>
+        <v>0.0282732011759515</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2135170572.135057</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1858857716.466697</v>
+        <v>1686951302.183372</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1923620720581264</v>
+        <v>0.1834152546311731</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03700379504046745</v>
+        <v>0.03377563170389065</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>929428834.4170952</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3382126027.024041</v>
+        <v>3976329078.717414</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1202117232490892</v>
+        <v>0.1695060702040621</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03731801165053563</v>
+        <v>0.05091104408776747</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>56</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1691063046.127438</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1423680413.831208</v>
+        <v>1192301841.589919</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1518112258844963</v>
+        <v>0.1902384271683131</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03351517288906427</v>
+        <v>0.04870321117247812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>711840222.183077</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4057708508.386312</v>
+        <v>4784712245.649605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1370595699673737</v>
+        <v>0.1186490090398798</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05775344670726044</v>
+        <v>0.05594185606799768</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>68</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2028854307.239863</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3496352547.834464</v>
+        <v>2610689938.721868</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1668059861366327</v>
+        <v>0.1995559545853052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03022490201388884</v>
+        <v>0.02554075437677716</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>47</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1748176272.021933</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4171143661.454827</v>
+        <v>4241350182.807304</v>
       </c>
       <c r="F54" t="n">
-        <v>0.160203303734976</v>
+        <v>0.1553765927934456</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04333287518720542</v>
+        <v>0.04251249017487867</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2085571908.206357</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3611817840.462671</v>
+        <v>3466885587.081311</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1953726908511558</v>
+        <v>0.1589055292086051</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02424194966479369</v>
+        <v>0.02950496237397258</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1805908877.962111</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1768714017.579552</v>
+        <v>1165819858.036062</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511619484874487</v>
+        <v>0.1146019386923486</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04178555664713246</v>
+        <v>0.0491717341218788</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>884357011.2020966</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4347270912.94831</v>
+        <v>3564507705.862597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1687746152152545</v>
+        <v>0.1410776570174215</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02138284409290492</v>
+        <v>0.01926469472779471</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>52</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2173635573.959809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1588665714.170651</v>
+        <v>1797226449.496542</v>
       </c>
       <c r="F58" t="n">
-        <v>0.123221624995619</v>
+        <v>0.1413656713501822</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02543260044092897</v>
+        <v>0.03263436735802226</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>794332880.0936371</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4113274868.925097</v>
+        <v>3446557902.968847</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09847837642422989</v>
+        <v>0.08661932638118082</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04536485374337468</v>
+        <v>0.03713527996250574</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2056637404.926181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2712398789.379141</v>
+        <v>3677208927.438828</v>
       </c>
       <c r="F60" t="n">
-        <v>0.144480780152609</v>
+        <v>0.180374417601094</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02140902454040215</v>
+        <v>0.02242027182694525</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1356199434.84314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2086417738.194995</v>
+        <v>2532401531.037485</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1431396369562481</v>
+        <v>0.1659037220952397</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02379293935213692</v>
+        <v>0.02746908443540006</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1043208935.686704</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1952559309.88316</v>
+        <v>1756267269.045959</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1828158470582894</v>
+        <v>0.1410851564238262</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03241975838066274</v>
+        <v>0.04970917326302712</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>976279705.8778938</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5415569158.953178</v>
+        <v>4637765418.324432</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09635888892659555</v>
+        <v>0.08012308406716069</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03515721777402391</v>
+        <v>0.03378284036109785</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>47</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2707784578.657639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4128011054.512302</v>
+        <v>3738818753.94114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1293922929714343</v>
+        <v>0.1490968888042128</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03256962346203503</v>
+        <v>0.0305232933105354</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>51</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2064005572.093592</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5905387016.883785</v>
+        <v>4413394561.125085</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1479220020975739</v>
+        <v>0.1511253776554109</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0295487624340894</v>
+        <v>0.02196742520617253</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>59</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2952693413.277714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3516593856.356773</v>
+        <v>4971953735.002155</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1009697534470403</v>
+        <v>0.1165015144168112</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04084224145886237</v>
+        <v>0.04858928606977257</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>48</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1758296875.827359</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3143686957.511297</v>
+        <v>2145651108.401285</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06318615179735579</v>
+        <v>0.06999012298227573</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04467633839685677</v>
+        <v>0.03902306768159366</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>53</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1571843484.792815</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6008744968.012323</v>
+        <v>5405472006.046695</v>
       </c>
       <c r="F68" t="n">
-        <v>0.115612488965362</v>
+        <v>0.1191870539032442</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05000210810987136</v>
+        <v>0.04825246704600253</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3004372601.48694</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2361268834.745979</v>
+        <v>1623036619.041197</v>
       </c>
       <c r="F69" t="n">
-        <v>0.144654441891531</v>
+        <v>0.1653476243218806</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03626418778596998</v>
+        <v>0.05474471603395364</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1180634469.000877</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3243180809.251069</v>
+        <v>3508265461.343029</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07390825058357965</v>
+        <v>0.09437126853156803</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04793549132868854</v>
+        <v>0.04065052419575232</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>47</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1621590397.388034</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4481537339.427116</v>
+        <v>4983230836.671859</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1493611310612731</v>
+        <v>0.1321223996976121</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02327107324929337</v>
+        <v>0.02486904416872562</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>60</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2240768736.706618</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1551384516.456182</v>
+        <v>1675811047.050556</v>
       </c>
       <c r="F72" t="n">
-        <v>0.094698614356839</v>
+        <v>0.09579581040704334</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05203851013948664</v>
+        <v>0.04900247359203722</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>775692276.863915</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3458832942.637802</v>
+        <v>2778169425.91478</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07026349459067906</v>
+        <v>0.1109223677948269</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04632682621106091</v>
+        <v>0.03401439015960851</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1729416425.250445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3642634402.341669</v>
+        <v>2486411647.777817</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1846571698192364</v>
+        <v>0.1115652798522404</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0324471676129653</v>
+        <v>0.03109027569125847</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>56</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1821317211.005635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1532723754.45533</v>
+        <v>2078267539.80217</v>
       </c>
       <c r="F75" t="n">
-        <v>0.137360831229154</v>
+        <v>0.118359793302806</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02385892390948906</v>
+        <v>0.03516694100551284</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>766361885.1591017</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3302675469.673063</v>
+        <v>4043591021.690998</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08698741052902385</v>
+        <v>0.1118514389392194</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02870369267529836</v>
+        <v>0.0211667944285476</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1651337690.304985</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1512058275.694375</v>
+        <v>1450099654.95816</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1231339240911115</v>
+        <v>0.1565399053034811</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0255778884327802</v>
+        <v>0.02647948428177811</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>756029127.2513113</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3539628756.505209</v>
+        <v>3732531336.873661</v>
       </c>
       <c r="F78" t="n">
-        <v>0.104673077828289</v>
+        <v>0.08877153824414626</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0491563955564769</v>
+        <v>0.04382604528217705</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1769814376.912136</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1594596686.757155</v>
+        <v>1525698222.264499</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1397456962879822</v>
+        <v>0.1610147601049998</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02653211995398962</v>
+        <v>0.02791722024539698</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>797298394.1101955</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3481317820.856088</v>
+        <v>4130342939.37626</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06918776138503858</v>
+        <v>0.1008149406393412</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02529441418568344</v>
+        <v>0.02420810366625851</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>34</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1740658884.063036</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3239064474.949956</v>
+        <v>3155750895.481421</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09912976389889061</v>
+        <v>0.1301414462125167</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02982519922811067</v>
+        <v>0.02435112064189622</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1619532172.39558</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4410878272.180979</v>
+        <v>5151247752.673845</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1806434605263606</v>
+        <v>0.2017639241568426</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02685291374375414</v>
+        <v>0.02917885808931856</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>62</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2205439152.882448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1766935240.550188</v>
+        <v>1782723928.636402</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1083954793243148</v>
+        <v>0.1220395902071472</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03449638026095157</v>
+        <v>0.03081313118405038</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>883467576.5651006</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1961410236.710188</v>
+        <v>2442814708.541316</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08957015621148094</v>
+        <v>0.1194455799151375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05018418274456474</v>
+        <v>0.03645483952770529</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>980705128.9727948</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2966258310.737751</v>
+        <v>3453156583.396655</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1759804584191657</v>
+        <v>0.1566983797022435</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05232455334491066</v>
+        <v>0.04560344256972546</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1483129211.756469</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2062597772.087483</v>
+        <v>2228926951.126895</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1715810181506779</v>
+        <v>0.1286383264789769</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02367172265099063</v>
+        <v>0.024728987704021</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1031298922.353619</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995869681.3047699</v>
+        <v>1328199210.817619</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1654410103727771</v>
+        <v>0.1749310640746989</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03379582280754281</v>
+        <v>0.03403442304557466</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>497934843.883209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3618091829.940851</v>
+        <v>3583912920.239421</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1158914667713284</v>
+        <v>0.1232591000186624</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03618336537581187</v>
+        <v>0.02442958940214446</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>65</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1809046006.454538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2267292231.993584</v>
+        <v>3512863247.842838</v>
       </c>
       <c r="F89" t="n">
-        <v>0.136349986394228</v>
+        <v>0.1299014782331338</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03844713373774475</v>
+        <v>0.03754320244479105</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1133646207.795938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1553195227.197505</v>
+        <v>1595035749.552968</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08989899583636511</v>
+        <v>0.1222644107510276</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03504258166316027</v>
+        <v>0.04223082103205165</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>776597602.0625714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1454069473.134409</v>
+        <v>2083835741.132972</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1860092946605058</v>
+        <v>0.1757919354144726</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05099043372107996</v>
+        <v>0.06137644947578215</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>727034781.565455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2539363380.050735</v>
+        <v>2347070573.693995</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09384413721839725</v>
+        <v>0.07351184166406834</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03524381556188994</v>
+        <v>0.04102748693326096</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1269681676.949715</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3583108464.660161</v>
+        <v>4269167981.102849</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08621499015400746</v>
+        <v>0.09460546862017723</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03620264747992597</v>
+        <v>0.04510226128620059</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1791554259.88288</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2071136784.426628</v>
+        <v>2460636877.427637</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1601424349496692</v>
+        <v>0.1622115468250388</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03405524272831872</v>
+        <v>0.03465135272617219</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1035568399.765133</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2118725285.300943</v>
+        <v>2431625967.555029</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1319689621492646</v>
+        <v>0.1186191324361551</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04416862427626108</v>
+        <v>0.04278508816726654</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1059362706.467552</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2264297747.869197</v>
+        <v>1701543692.555788</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1184373173650263</v>
+        <v>0.1159605110070551</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04365658491328846</v>
+        <v>0.04720317046155703</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1132148832.651076</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5116647198.020944</v>
+        <v>3700855801.625208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1767639847172839</v>
+        <v>0.1253883335807629</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02687756968710717</v>
+        <v>0.02096770829999722</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>53</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2558323745.146757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2954703041.527158</v>
+        <v>3151909601.170351</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1245938264901108</v>
+        <v>0.1269073004536418</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03239081626165444</v>
+        <v>0.02378107108534126</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>43</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1477351502.357787</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3326709929.990129</v>
+        <v>2334017273.412016</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1092286087772909</v>
+        <v>0.1409138841772995</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02589295884293539</v>
+        <v>0.02215206965985807</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>54</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1663354974.581227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3155614925.033187</v>
+        <v>4549211467.406912</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1614716701878404</v>
+        <v>0.1446577394586163</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02099782293488432</v>
+        <v>0.0185376205070109</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>51</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1577807465.745013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3268850369.176276</v>
+        <v>2490580634.956102</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1749842591472958</v>
+        <v>0.2177876973172714</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04069378016793004</v>
+        <v>0.05323819837487966</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>67</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1634425309.144973</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_165.xlsx
+++ b/output/fit_clients/fit_round_165.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2445521035.696712</v>
+        <v>1680452734.106905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07195869336979131</v>
+        <v>0.08574072254262442</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04040774622095901</v>
+        <v>0.03619833323203717</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2185699829.343767</v>
+        <v>1881610254.919395</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1847196359666322</v>
+        <v>0.1815747602737269</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0491948469868298</v>
+        <v>0.03699500733294434</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3562330477.422508</v>
+        <v>5141409451.433166</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1568671271692565</v>
+        <v>0.1175278906732098</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03051435199630658</v>
+        <v>0.02817653957349262</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3325533698.58087</v>
+        <v>3578324268.456961</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1075949396675221</v>
+        <v>0.08509615861093396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04828544642011234</v>
+        <v>0.04552504401288011</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2541789785.542227</v>
+        <v>1936019549.281061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1065579515742753</v>
+        <v>0.1001448369766196</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0504977190927543</v>
+        <v>0.03803475202810114</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3027376015.305625</v>
+        <v>3098765692.47287</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06357827658471053</v>
+        <v>0.07402868161818775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04405084991141407</v>
+        <v>0.04381781824043528</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3762992529.928046</v>
+        <v>3229268082.608233</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1577412653048407</v>
+        <v>0.170530193280965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02734915061732824</v>
+        <v>0.03176837744799745</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1428666891.439606</v>
+        <v>2227495842.830604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1917975761169016</v>
+        <v>0.1214413872426142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03118775248989943</v>
+        <v>0.03016240178497826</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5519879365.958655</v>
+        <v>5906476006.048071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2046728004027397</v>
+        <v>0.1760769687795689</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04204599481145204</v>
+        <v>0.0480958559815272</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3366963338.899289</v>
+        <v>2773408064.617559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1881822285755403</v>
+        <v>0.1530085022218901</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03865127971932659</v>
+        <v>0.03391821454536248</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2160535511.247185</v>
+        <v>2867279102.381856</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1736487100295609</v>
+        <v>0.1560382523554926</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0432404193805087</v>
+        <v>0.0387991405398708</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4801029423.726445</v>
+        <v>5079899324.796018</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07664083410213432</v>
+        <v>0.0683140323705685</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02468549687187225</v>
+        <v>0.01961652917534633</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2945023723.384718</v>
+        <v>3284095117.808691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1644054873611739</v>
+        <v>0.1742411572252381</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02778481523882034</v>
+        <v>0.03283994165566208</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1250436490.857301</v>
+        <v>1516038384.648045</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1053383819496231</v>
+        <v>0.1049176459239224</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03442488715814538</v>
+        <v>0.03167753965499013</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2226289199.974702</v>
+        <v>2208697339.717616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1102198921917751</v>
+        <v>0.07917281018272346</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04762625960399129</v>
+        <v>0.0328825367011062</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4284197605.359057</v>
+        <v>3505699568.973205</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1504271883954792</v>
+        <v>0.1537848274680246</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03659788325954808</v>
+        <v>0.0331481174384967</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3089833016.144819</v>
+        <v>3889175994.58918</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1702306822194863</v>
+        <v>0.1710963069022165</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02298380827340124</v>
+        <v>0.03138122469406355</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>843746207.4325943</v>
+        <v>854522711.2254755</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1826139412354439</v>
+        <v>0.1647821810809167</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02299098303532368</v>
+        <v>0.02243067535360764</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2668539457.953054</v>
+        <v>2674000527.275155</v>
       </c>
       <c r="F20" t="n">
-        <v>0.11229026072169</v>
+        <v>0.158892767845769</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0275041186192929</v>
+        <v>0.02369819948747348</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2638538348.795063</v>
+        <v>1779717631.888877</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1018946318631324</v>
+        <v>0.07109854360854519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03729535766788444</v>
+        <v>0.03284405670159078</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2716900713.995815</v>
+        <v>3069075327.562872</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1284337121004737</v>
+        <v>0.09182393232858778</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0360324918510579</v>
+        <v>0.04243752402604082</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1512064118.80792</v>
+        <v>1061505024.989458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1620381802656189</v>
+        <v>0.1862779844980562</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04932059058804894</v>
+        <v>0.03381235484793014</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3621171665.883982</v>
+        <v>3307385147.014181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1115977470496291</v>
+        <v>0.1211000662671169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03494080654573919</v>
+        <v>0.03724237958907355</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>915913114.3582751</v>
+        <v>1142733320.407504</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1016793021420833</v>
+        <v>0.1115456687762826</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02586988628679176</v>
+        <v>0.02798779579324161</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1112458136.673228</v>
+        <v>1246817929.565323</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09828072625462599</v>
+        <v>0.1012855591705122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02483050246278615</v>
+        <v>0.02798566169672259</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3167743656.583215</v>
+        <v>3702546692.264298</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1103418836302184</v>
+        <v>0.1060161512951691</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02546789545420688</v>
+        <v>0.01766838734729964</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3762370119.160037</v>
+        <v>2642290099.081134</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1227582451057268</v>
+        <v>0.1446849839467421</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03201419953175005</v>
+        <v>0.036092000473265</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4211605648.418107</v>
+        <v>4098251107.312999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1372414030703279</v>
+        <v>0.1125111678503528</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04428569312391945</v>
+        <v>0.04386471253385851</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2205279998.261502</v>
+        <v>1835201960.973581</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1199850579107707</v>
+        <v>0.1392627752621476</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02908435816016243</v>
+        <v>0.03412918823607457</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>944297039.4862113</v>
+        <v>1458758072.290412</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1076062255322244</v>
+        <v>0.08999568491041948</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04368211334160936</v>
+        <v>0.04953760554549135</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1525974647.307982</v>
+        <v>1897594004.577249</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1197419307762872</v>
+        <v>0.1060266020164878</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0248123922634699</v>
+        <v>0.03250224690771599</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3109609305.045528</v>
+        <v>2057068051.364701</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1962185523928242</v>
+        <v>0.1721549594552915</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04923799881198467</v>
+        <v>0.03954482235617781</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1163807399.991565</v>
+        <v>1421066332.429204</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08680895758016038</v>
+        <v>0.09902604562710279</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02186468733008561</v>
+        <v>0.01963586721446761</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1312144939.233439</v>
+        <v>1003734915.481295</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104958562775888</v>
+        <v>0.1097579105550362</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03759135507320462</v>
+        <v>0.02783443105673293</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2984654339.133355</v>
+        <v>2997991511.587132</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1495499709917693</v>
+        <v>0.163363140050526</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01745070519784572</v>
+        <v>0.02668560131700455</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2422042264.656336</v>
+        <v>2090798871.064199</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09316930386302048</v>
+        <v>0.07058350048707461</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03744136635529581</v>
+        <v>0.02735061490908107</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2031910221.519643</v>
+        <v>2103029913.057445</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1196449487159635</v>
+        <v>0.1075477942162796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03781172541197586</v>
+        <v>0.03705445004625541</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1875231328.202071</v>
+        <v>1837211796.612623</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1226052568455532</v>
+        <v>0.1190897181454546</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03125612895942907</v>
+        <v>0.02845869228632197</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1430369735.723351</v>
+        <v>1313537200.691932</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1085872938227319</v>
+        <v>0.108983233579659</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05665288733682159</v>
+        <v>0.0485648994030792</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2325727566.35524</v>
+        <v>2895335016.649492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1106631681876875</v>
+        <v>0.1578500493709885</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03518477069960871</v>
+        <v>0.03368269003405715</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2917951323.020658</v>
+        <v>3559099547.677287</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1061260119206056</v>
+        <v>0.1252832377756083</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04232359679973806</v>
+        <v>0.03987323471169971</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2028424293.237565</v>
+        <v>1855749765.846763</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1269932349229925</v>
+        <v>0.1816622000740904</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01831418421937132</v>
+        <v>0.01630324279493259</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1906304055.582107</v>
+        <v>2030695161.561352</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07052956732748415</v>
+        <v>0.1001903073445068</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03438542466741419</v>
+        <v>0.02511525535997308</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2459022239.630087</v>
+        <v>2353883301.125213</v>
       </c>
       <c r="F45" t="n">
-        <v>0.180587148985462</v>
+        <v>0.1946524453679085</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03966217455072681</v>
+        <v>0.04895528660577077</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5305151622.995098</v>
+        <v>5465930067.162981</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1537905856931272</v>
+        <v>0.1094875055468378</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04193735594411933</v>
+        <v>0.0601916949046514</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5150952351.336782</v>
+        <v>4586712307.969538</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1663742946785676</v>
+        <v>0.1260470369241836</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03908917301206345</v>
+        <v>0.05891013702693029</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4111107665.023966</v>
+        <v>3360246909.015537</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08113687636589358</v>
+        <v>0.06640566305833259</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0282732011759515</v>
+        <v>0.02736797296845892</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1686951302.183372</v>
+        <v>1337438481.950529</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1834152546311731</v>
+        <v>0.1551366276185934</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03377563170389065</v>
+        <v>0.03922372837469495</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3976329078.717414</v>
+        <v>3279210307.523266</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1695060702040621</v>
+        <v>0.1611546248052692</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05091104408776747</v>
+        <v>0.04151637737531055</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1192301841.589919</v>
+        <v>1120814590.142736</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1902384271683131</v>
+        <v>0.1377676931061846</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04870321117247812</v>
+        <v>0.03638209926934292</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4784712245.649605</v>
+        <v>4657139784.027417</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1186490090398798</v>
+        <v>0.1145146557013537</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05594185606799768</v>
+        <v>0.05644758024504489</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2610689938.721868</v>
+        <v>2404653756.783507</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1995559545853052</v>
+        <v>0.1551689503076554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02554075437677716</v>
+        <v>0.02724982488976236</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4241350182.807304</v>
+        <v>4112924724.025863</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1553765927934456</v>
+        <v>0.1224666761098568</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04251249017487867</v>
+        <v>0.03698877681648851</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3466885587.081311</v>
+        <v>3614865045.896701</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1589055292086051</v>
+        <v>0.2130055876683061</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02950496237397258</v>
+        <v>0.02397364208503365</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1165819858.036062</v>
+        <v>1713052725.627165</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1146019386923486</v>
+        <v>0.1568099020801167</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0491717341218788</v>
+        <v>0.05170475684649806</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3564507705.862597</v>
+        <v>3470018837.719771</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1410776570174215</v>
+        <v>0.1168904160589173</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01926469472779471</v>
+        <v>0.02066799723038306</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1797226449.496542</v>
+        <v>1560932205.14818</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1413656713501822</v>
+        <v>0.1393943302779893</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03263436735802226</v>
+        <v>0.03095328253689199</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3446557902.968847</v>
+        <v>4789949595.851783</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08661932638118082</v>
+        <v>0.08475899262166424</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03713527996250574</v>
+        <v>0.04148836500284588</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3677208927.438828</v>
+        <v>2417235031.551739</v>
       </c>
       <c r="F60" t="n">
-        <v>0.180374417601094</v>
+        <v>0.1930623823761876</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02242027182694525</v>
+        <v>0.02354405360649171</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2532401531.037485</v>
+        <v>2934844303.143125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1659037220952397</v>
+        <v>0.1340029264517236</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02746908443540006</v>
+        <v>0.03012288710995258</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1756267269.045959</v>
+        <v>1733472615.225589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1410851564238262</v>
+        <v>0.1274445268914059</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04970917326302712</v>
+        <v>0.04564034189117535</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4637765418.324432</v>
+        <v>3950711972.146593</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08012308406716069</v>
+        <v>0.1021791750783556</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03378284036109785</v>
+        <v>0.03278520832788089</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3738818753.94114</v>
+        <v>5169127643.358404</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1490968888042128</v>
+        <v>0.1597343719100016</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0305232933105354</v>
+        <v>0.02321247705135994</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4413394561.125085</v>
+        <v>4864740097.901371</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1511253776554109</v>
+        <v>0.1128723976653758</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02196742520617253</v>
+        <v>0.02788168380427531</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4971953735.002155</v>
+        <v>4248150669.353496</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1165015144168112</v>
+        <v>0.1424131617630528</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04858928606977257</v>
+        <v>0.04680116106114367</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2145651108.401285</v>
+        <v>2395466578.243084</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06999012298227573</v>
+        <v>0.100397562529046</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03902306768159366</v>
+        <v>0.05136199474481527</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5405472006.046695</v>
+        <v>5189014083.781197</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1191870539032442</v>
+        <v>0.114377490628191</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04825246704600253</v>
+        <v>0.03946762855435008</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1623036619.041197</v>
+        <v>1506886978.035117</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1653476243218806</v>
+        <v>0.183584219393104</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05474471603395364</v>
+        <v>0.04157336723300693</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3508265461.343029</v>
+        <v>2520191436.864722</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09437126853156803</v>
+        <v>0.1011993918056998</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04065052419575232</v>
+        <v>0.03661612688332782</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4983230836.671859</v>
+        <v>5008969980.777567</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1321223996976121</v>
+        <v>0.1849524611702888</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02486904416872562</v>
+        <v>0.03237021290186433</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1675811047.050556</v>
+        <v>1910930516.269786</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09579581040704334</v>
+        <v>0.06883093674696165</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04900247359203722</v>
+        <v>0.03738760397654776</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2778169425.91478</v>
+        <v>2572035802.036257</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1109223677948269</v>
+        <v>0.07940809231870841</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03401439015960851</v>
+        <v>0.05133518652931545</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2486411647.777817</v>
+        <v>3775822026.027164</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1115652798522404</v>
+        <v>0.1210420440830299</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03109027569125847</v>
+        <v>0.03376003795056569</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2078267539.80217</v>
+        <v>2438106936.211245</v>
       </c>
       <c r="F75" t="n">
-        <v>0.118359793302806</v>
+        <v>0.1120803704794114</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03516694100551284</v>
+        <v>0.02655450064413826</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4043591021.690998</v>
+        <v>3229409047.833807</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1118514389392194</v>
+        <v>0.08094474078569869</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0211667944285476</v>
+        <v>0.02482918780058701</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1450099654.95816</v>
+        <v>1531073782.720546</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1565399053034811</v>
+        <v>0.1575611687497855</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02647948428177811</v>
+        <v>0.02678633427759067</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3732531336.873661</v>
+        <v>4692807579.855859</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08877153824414626</v>
+        <v>0.08745615288113444</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04382604528217705</v>
+        <v>0.04747061679434672</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1525698222.264499</v>
+        <v>1611495207.534363</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1610147601049998</v>
+        <v>0.1723249640412094</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02791722024539698</v>
+        <v>0.02975939976462492</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4130342939.37626</v>
+        <v>5259219305.32827</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1008149406393412</v>
+        <v>0.07376637505097007</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02420810366625851</v>
+        <v>0.03255545601992155</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3155750895.481421</v>
+        <v>3944217349.27527</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1301414462125167</v>
+        <v>0.1279973008678705</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02435112064189622</v>
+        <v>0.03145321924329644</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5151247752.673845</v>
+        <v>3460718372.796731</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2017639241568426</v>
+        <v>0.1971272453264542</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02917885808931856</v>
+        <v>0.02883794002092277</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1782723928.636402</v>
+        <v>2367919871.175051</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1220395902071472</v>
+        <v>0.112598047278223</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03081313118405038</v>
+        <v>0.04462196416234614</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2442814708.541316</v>
+        <v>2214089001.078562</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1194455799151375</v>
+        <v>0.07497202714088678</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03645483952770529</v>
+        <v>0.0455782617948145</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3453156583.396655</v>
+        <v>3133728184.426282</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1566983797022435</v>
+        <v>0.1646071923358951</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04560344256972546</v>
+        <v>0.03630235656940877</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2228926951.126895</v>
+        <v>2803360404.605223</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1286383264789769</v>
+        <v>0.1617518728162049</v>
       </c>
       <c r="G86" t="n">
-        <v>0.024728987704021</v>
+        <v>0.01764182705559071</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1328199210.817619</v>
+        <v>1078915062.800489</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1749310640746989</v>
+        <v>0.1699370914927823</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03403442304557466</v>
+        <v>0.04298360035490813</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3583912920.239421</v>
+        <v>3404978103.891473</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1232591000186624</v>
+        <v>0.1170089965206184</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02442958940214446</v>
+        <v>0.03065033112420208</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3512863247.842838</v>
+        <v>2786639214.383269</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1299014782331338</v>
+        <v>0.1177453635753851</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03754320244479105</v>
+        <v>0.02684670471066925</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1595035749.552968</v>
+        <v>1717578809.783986</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1222644107510276</v>
+        <v>0.1082914453801033</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04223082103205165</v>
+        <v>0.05342510883030095</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2083835741.132972</v>
+        <v>1751242913.656431</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1757919354144726</v>
+        <v>0.136534234890818</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06137644947578215</v>
+        <v>0.06071701442727561</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2347070573.693995</v>
+        <v>1982792220.488404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07351184166406834</v>
+        <v>0.08824361982450708</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04102748693326096</v>
+        <v>0.04648476314504595</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4269167981.102849</v>
+        <v>3669498206.773184</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09460546862017723</v>
+        <v>0.1237053692995887</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04510226128620059</v>
+        <v>0.05217694241101292</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2460636877.427637</v>
+        <v>1618492930.6051</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1622115468250388</v>
+        <v>0.1684771803123591</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03465135272617219</v>
+        <v>0.03919365836517798</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2431625967.555029</v>
+        <v>2933106033.006551</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1186191324361551</v>
+        <v>0.132966167104446</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04278508816726654</v>
+        <v>0.03995857115195682</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1701543692.555788</v>
+        <v>2140318098.501066</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1159605110070551</v>
+        <v>0.1242304029765086</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04720317046155703</v>
+        <v>0.04495021174591901</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3700855801.625208</v>
+        <v>4666770761.463473</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1253883335807629</v>
+        <v>0.1607640899057291</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02096770829999722</v>
+        <v>0.02871509513351501</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3151909601.170351</v>
+        <v>3801957788.885108</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1269073004536418</v>
+        <v>0.09054177013616296</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02378107108534126</v>
+        <v>0.02853183011829181</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2334017273.412016</v>
+        <v>3109417074.484848</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1409138841772995</v>
+        <v>0.1369201424057197</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02215206965985807</v>
+        <v>0.03435745126878207</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4549211467.406912</v>
+        <v>3199739877.303866</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1446577394586163</v>
+        <v>0.1660846188530752</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0185376205070109</v>
+        <v>0.02274224146352683</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2490580634.956102</v>
+        <v>3411476195.099174</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2177876973172714</v>
+        <v>0.1654737768947933</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05323819837487966</v>
+        <v>0.03930825105400127</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_165.xlsx
+++ b/output/fit_clients/fit_round_165.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1680452734.106905</v>
+        <v>2221631909.593467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08574072254262442</v>
+        <v>0.08126166701314376</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03619833323203717</v>
+        <v>0.04383185666302278</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1881610254.919395</v>
+        <v>2133072675.36146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1815747602737269</v>
+        <v>0.162606598004661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03699500733294434</v>
+        <v>0.03622970751224469</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5141409451.433166</v>
+        <v>4935818256.355007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1175278906732098</v>
+        <v>0.1335941414998336</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02817653957349262</v>
+        <v>0.03680281529962008</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>92</v>
+      </c>
+      <c r="J4" t="n">
+        <v>165</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3578324268.456961</v>
+        <v>3544990953.694088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08509615861093396</v>
+        <v>0.06931363144932327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04552504401288011</v>
+        <v>0.03086184367489521</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>163</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1936019549.281061</v>
+        <v>1828247107.111451</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1001448369766196</v>
+        <v>0.1256011369838298</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03803475202810114</v>
+        <v>0.03671799400875943</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3098765692.47287</v>
+        <v>2057355608.181972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07402868161818775</v>
+        <v>0.08279401090519566</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04381781824043528</v>
+        <v>0.03286666954577197</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3229268082.608233</v>
+        <v>3899628607.753432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.170530193280965</v>
+        <v>0.1374522480092372</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03176837744799745</v>
+        <v>0.03159325556872205</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>47</v>
+      </c>
+      <c r="J8" t="n">
+        <v>165</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2227495842.830604</v>
+        <v>1398079732.667777</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1214413872426142</v>
+        <v>0.1896020662645391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03016240178497826</v>
+        <v>0.03395462916984194</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5906476006.048071</v>
+        <v>4589289108.613407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1760769687795689</v>
+        <v>0.2016027918397001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0480958559815272</v>
+        <v>0.03954180714640497</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>152</v>
+      </c>
+      <c r="J10" t="n">
+        <v>165</v>
+      </c>
+      <c r="K10" t="n">
+        <v>144.732403340132</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2773408064.617559</v>
+        <v>4262630905.767956</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1530085022218901</v>
+        <v>0.1800260672011481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03391821454536248</v>
+        <v>0.04797031662199348</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>165</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2867279102.381856</v>
+        <v>2873773406.724514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1560382523554926</v>
+        <v>0.1955919243485782</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0387991405398708</v>
+        <v>0.05150373394045481</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5079899324.796018</v>
+        <v>4950551038.179255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0683140323705685</v>
+        <v>0.09354222651545059</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01961652917534633</v>
+        <v>0.02804498394394791</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>81</v>
+      </c>
+      <c r="J13" t="n">
+        <v>164</v>
+      </c>
+      <c r="K13" t="n">
+        <v>132.2193976811951</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3284095117.808691</v>
+        <v>2669543399.509212</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1742411572252381</v>
+        <v>0.1300337145473439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03283994165566208</v>
+        <v>0.03557985900780276</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1516038384.648045</v>
+        <v>1842089299.995189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1049176459239224</v>
+        <v>0.07790850680658255</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03167753965499013</v>
+        <v>0.04711275175494502</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2208697339.717616</v>
+        <v>2011075699.357317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07917281018272346</v>
+        <v>0.1046715248998263</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0328825367011062</v>
+        <v>0.03980359630655893</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3505699568.973205</v>
+        <v>3713566014.121264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1537848274680246</v>
+        <v>0.113349219749181</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0331481174384967</v>
+        <v>0.04897733772212005</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>164</v>
+      </c>
+      <c r="K17" t="n">
+        <v>83.55374149860488</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3889175994.58918</v>
+        <v>2999294832.034851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1710963069022165</v>
+        <v>0.1673319161359329</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03138122469406355</v>
+        <v>0.02248620706500492</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>161</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>854522711.2254755</v>
+        <v>1263842317.741985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1647821810809167</v>
+        <v>0.1444170556088466</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02243067535360764</v>
+        <v>0.0251981587245758</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2674000527.275155</v>
+        <v>2231922914.172461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.158892767845769</v>
+        <v>0.1144188612727322</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02369819948747348</v>
+        <v>0.01951965355022987</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1779717631.888877</v>
+        <v>1771228510.519488</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07109854360854519</v>
+        <v>0.08687514613480095</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03284405670159078</v>
+        <v>0.03471761947861835</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3069075327.562872</v>
+        <v>3888776940.607265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09182393232858778</v>
+        <v>0.0888505364606834</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04243752402604082</v>
+        <v>0.05312669097515756</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>43</v>
+      </c>
+      <c r="J22" t="n">
+        <v>164</v>
+      </c>
+      <c r="K22" t="n">
+        <v>92.00172515579992</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1061505024.989458</v>
+        <v>1155137030.024755</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1862779844980562</v>
+        <v>0.1671142784902152</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03381235484793014</v>
+        <v>0.05150523800972102</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3307385147.014181</v>
+        <v>3797849316.03816</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1211000662671169</v>
+        <v>0.09792200747519562</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03724237958907355</v>
+        <v>0.03050576017725654</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="n">
+        <v>164</v>
+      </c>
+      <c r="K24" t="n">
+        <v>87.77588427046338</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1142733320.407504</v>
+        <v>1179079799.768852</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1115456687762826</v>
+        <v>0.08510906757969913</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02798779579324161</v>
+        <v>0.02204765909367365</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1246817929.565323</v>
+        <v>1093946795.719836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1012855591705122</v>
+        <v>0.09594852380524097</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02798566169672259</v>
+        <v>0.03265231707091223</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3702546692.264298</v>
+        <v>4229620246.381317</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1060161512951691</v>
+        <v>0.1352089127119815</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01766838734729964</v>
+        <v>0.01823786207590826</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>65</v>
+      </c>
+      <c r="J27" t="n">
+        <v>165</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2642290099.081134</v>
+        <v>2413898102.192153</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1446849839467421</v>
+        <v>0.1177809605446799</v>
       </c>
       <c r="G28" t="n">
-        <v>0.036092000473265</v>
+        <v>0.05016309085661931</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4098251107.312999</v>
+        <v>5397162087.338324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1125111678503528</v>
+        <v>0.1158232875807231</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04386471253385851</v>
+        <v>0.0350493528569137</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>154</v>
+      </c>
+      <c r="J29" t="n">
+        <v>165</v>
+      </c>
+      <c r="K29" t="n">
+        <v>153.7377691438315</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1835201960.973581</v>
+        <v>1548932957.581162</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1392627752621476</v>
+        <v>0.1270028079911026</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03412918823607457</v>
+        <v>0.03022678503709039</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458758072.290412</v>
+        <v>1248464322.399688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08999568491041948</v>
+        <v>0.09419432374632267</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04953760554549135</v>
+        <v>0.03834116191788658</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1897594004.577249</v>
+        <v>1537187351.478072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1060266020164878</v>
+        <v>0.1204709225061249</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03250224690771599</v>
+        <v>0.02862895219418705</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2057068051.364701</v>
+        <v>2118629835.655499</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1721549594552915</v>
+        <v>0.1284088208353191</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03954482235617781</v>
+        <v>0.04723975040247336</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1421066332.429204</v>
+        <v>1009675829.387227</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09902604562710279</v>
+        <v>0.07929289613766118</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01963586721446761</v>
+        <v>0.0253803848067661</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1003734915.481295</v>
+        <v>1123771125.700775</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097579105550362</v>
+        <v>0.0744145919448333</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02783443105673293</v>
+        <v>0.02779309426139791</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2997991511.587132</v>
+        <v>2173968447.97553</v>
       </c>
       <c r="F36" t="n">
-        <v>0.163363140050526</v>
+        <v>0.1326068563768124</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02668560131700455</v>
+        <v>0.02640608274738312</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2090798871.064199</v>
+        <v>2861760787.641925</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07058350048707461</v>
+        <v>0.1040199194082312</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02735061490908107</v>
+        <v>0.03577133158389818</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2103029913.057445</v>
+        <v>1488973965.91755</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1075477942162796</v>
+        <v>0.1156316447407347</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03705445004625541</v>
+        <v>0.03944274144437607</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1837211796.612623</v>
+        <v>2098892449.267931</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1190897181454546</v>
+        <v>0.1193474339444256</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02845869228632197</v>
+        <v>0.02810913188567034</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1313537200.691932</v>
+        <v>1095653956.193174</v>
       </c>
       <c r="F40" t="n">
-        <v>0.108983233579659</v>
+        <v>0.1089055145754314</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0485648994030792</v>
+        <v>0.04555228981726211</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2895335016.649492</v>
+        <v>2629350676.903614</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1578500493709885</v>
+        <v>0.121406681967345</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03368269003405715</v>
+        <v>0.03219381302213964</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3559099547.677287</v>
+        <v>3904223652.752464</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1252832377756083</v>
+        <v>0.08858885513524946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03987323471169971</v>
+        <v>0.04476197246432683</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>61</v>
+      </c>
+      <c r="J42" t="n">
+        <v>165</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1855749765.846763</v>
+        <v>2938670208.932369</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1816622000740904</v>
+        <v>0.1623520123023539</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01630324279493259</v>
+        <v>0.01769458761711055</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2030695161.561352</v>
+        <v>1993020711.792762</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1001903073445068</v>
+        <v>0.09088283080256093</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02511525535997308</v>
+        <v>0.02803019140150246</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2353883301.125213</v>
+        <v>1868710573.493307</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1946524453679085</v>
+        <v>0.1177386418414566</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04895528660577077</v>
+        <v>0.03811362509281205</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5465930067.162981</v>
+        <v>5362113583.631255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1094875055468378</v>
+        <v>0.1657317950488953</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0601916949046514</v>
+        <v>0.05847204039230031</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>93</v>
+      </c>
+      <c r="J46" t="n">
+        <v>165</v>
+      </c>
+      <c r="K46" t="n">
+        <v>134.5600692707552</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4586712307.969538</v>
+        <v>5090767459.982389</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1260470369241836</v>
+        <v>0.1960514956933381</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05891013702693029</v>
+        <v>0.05867618284706717</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>73</v>
+      </c>
+      <c r="J47" t="n">
+        <v>165</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3360246909.015537</v>
+        <v>3537360927.721125</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06640566305833259</v>
+        <v>0.1059772496021612</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02736797296845892</v>
+        <v>0.03200207805523363</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>74</v>
+      </c>
+      <c r="J48" t="n">
+        <v>164</v>
+      </c>
+      <c r="K48" t="n">
+        <v>86.65735085999825</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1337438481.950529</v>
+        <v>1385568482.722913</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1551366276185934</v>
+        <v>0.1962889846147712</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03922372837469495</v>
+        <v>0.02730359227795399</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3279210307.523266</v>
+        <v>2770280811.630183</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1611546248052692</v>
+        <v>0.1242641101465524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04151637737531055</v>
+        <v>0.04741106971938419</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1120814590.142736</v>
+        <v>1286078409.556709</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1377676931061846</v>
+        <v>0.1654234654728601</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03638209926934292</v>
+        <v>0.04900134607678801</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4657139784.027417</v>
+        <v>3197639455.648046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1145146557013537</v>
+        <v>0.1322663361753298</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05644758024504489</v>
+        <v>0.0471699425881483</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>118</v>
+      </c>
+      <c r="J52" t="n">
+        <v>164</v>
+      </c>
+      <c r="K52" t="n">
+        <v>69.68156514637873</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2404653756.783507</v>
+        <v>2939508172.341097</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1551689503076554</v>
+        <v>0.1385322090646043</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02724982488976236</v>
+        <v>0.0227777661255905</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>162</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4112924724.025863</v>
+        <v>4628658761.13755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1224666761098568</v>
+        <v>0.1566155414330198</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03698877681648851</v>
+        <v>0.04214257483920448</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>80</v>
+      </c>
+      <c r="J54" t="n">
+        <v>165</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3614865045.896701</v>
+        <v>4184369845.733383</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2130055876683061</v>
+        <v>0.2217878434960981</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02397364208503365</v>
+        <v>0.02724639852770055</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>75</v>
+      </c>
+      <c r="J55" t="n">
+        <v>164</v>
+      </c>
+      <c r="K55" t="n">
+        <v>113.0053770190519</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1713052725.627165</v>
+        <v>1182769768.916084</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1568099020801167</v>
+        <v>0.115442588740444</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05170475684649806</v>
+        <v>0.05372858018462667</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3470018837.719771</v>
+        <v>3474658102.507589</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1168904160589173</v>
+        <v>0.1657326228045068</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02066799723038306</v>
+        <v>0.02103402414077691</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>67</v>
+      </c>
+      <c r="J57" t="n">
+        <v>164</v>
+      </c>
+      <c r="K57" t="n">
+        <v>79.11127428339643</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1560932205.14818</v>
+        <v>1206989787.935375</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1393943302779893</v>
+        <v>0.1230162891125693</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03095328253689199</v>
+        <v>0.03068634090520256</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4789949595.851783</v>
+        <v>4646053994.075346</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08475899262166424</v>
+        <v>0.08871642142636744</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04148836500284588</v>
+        <v>0.04073060890269692</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>79</v>
+      </c>
+      <c r="J59" t="n">
+        <v>165</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2417235031.551739</v>
+        <v>2472035524.911355</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1930623823761876</v>
+        <v>0.1411731815686021</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02354405360649171</v>
+        <v>0.02044302222740417</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2934844303.143125</v>
+        <v>2701950756.353152</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1340029264517236</v>
+        <v>0.1602647269085948</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03012288710995258</v>
+        <v>0.02216538187714445</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1733472615.225589</v>
+        <v>2011167784.173795</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1274445268914059</v>
+        <v>0.1372624063600993</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04564034189117535</v>
+        <v>0.03405082883136786</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3950711972.146593</v>
+        <v>5249340423.78978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1021791750783556</v>
+        <v>0.07043262150922645</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03278520832788089</v>
+        <v>0.04699460513840428</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>81</v>
+      </c>
+      <c r="J63" t="n">
+        <v>164</v>
+      </c>
+      <c r="K63" t="n">
+        <v>123.460130832365</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5169127643.358404</v>
+        <v>5276503850.969443</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1597343719100016</v>
+        <v>0.1856608798223796</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02321247705135994</v>
+        <v>0.03163010380149782</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>81</v>
+      </c>
+      <c r="J64" t="n">
+        <v>165</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4864740097.901371</v>
+        <v>5145718326.036341</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1128723976653758</v>
+        <v>0.1521710520393864</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02788168380427531</v>
+        <v>0.02340229213430541</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>137</v>
+      </c>
+      <c r="J65" t="n">
+        <v>164</v>
+      </c>
+      <c r="K65" t="n">
+        <v>134.2046162454352</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4248150669.353496</v>
+        <v>4018042421.002374</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1424131617630528</v>
+        <v>0.1527640230627281</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04680116106114367</v>
+        <v>0.03640226899142304</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>81</v>
+      </c>
+      <c r="J66" t="n">
+        <v>165</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2395466578.243084</v>
+        <v>2310177956.310564</v>
       </c>
       <c r="F67" t="n">
-        <v>0.100397562529046</v>
+        <v>0.08883479675301678</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05136199474481527</v>
+        <v>0.03925869166037987</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5189014083.781197</v>
+        <v>5301797276.232098</v>
       </c>
       <c r="F68" t="n">
-        <v>0.114377490628191</v>
+        <v>0.1275470194712525</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03946762855435008</v>
+        <v>0.03836927657647681</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>83</v>
+      </c>
+      <c r="J68" t="n">
+        <v>164</v>
+      </c>
+      <c r="K68" t="n">
+        <v>126.2603932093415</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1506886978.035117</v>
+        <v>1785847868.707737</v>
       </c>
       <c r="F69" t="n">
-        <v>0.183584219393104</v>
+        <v>0.1290385401464776</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04157336723300693</v>
+        <v>0.05697822320752884</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2520191436.864722</v>
+        <v>3624216659.870932</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1011993918056998</v>
+        <v>0.1013510258753522</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03661612688332782</v>
+        <v>0.0359338727134301</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>165</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5008969980.777567</v>
+        <v>5228088573.343483</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1849524611702888</v>
+        <v>0.1393580531158198</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03237021290186433</v>
+        <v>0.02229466573127547</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>130</v>
+      </c>
+      <c r="J71" t="n">
+        <v>165</v>
+      </c>
+      <c r="K71" t="n">
+        <v>136.0225679427778</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1910930516.269786</v>
+        <v>1518665240.93922</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06883093674696165</v>
+        <v>0.07970761564144135</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03738760397654776</v>
+        <v>0.03594607180277643</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2572035802.036257</v>
+        <v>2356051815.27085</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07940809231870841</v>
+        <v>0.08109495381064326</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05133518652931545</v>
+        <v>0.04225523150066418</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3775822026.027164</v>
+        <v>3577241818.545757</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1210420440830299</v>
+        <v>0.1838000195795988</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03376003795056569</v>
+        <v>0.02481468303433738</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>164</v>
+      </c>
+      <c r="K74" t="n">
+        <v>87.15861710015886</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2438106936.211245</v>
+        <v>1914758731.463214</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1120803704794114</v>
+        <v>0.1279202225334095</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02655450064413826</v>
+        <v>0.03416816256204702</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3229409047.833807</v>
+        <v>4198206231.044629</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08094474078569869</v>
+        <v>0.1065438152261987</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02482918780058701</v>
+        <v>0.03324719523723388</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>75</v>
+      </c>
+      <c r="J76" t="n">
+        <v>165</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1531073782.720546</v>
+        <v>1684999957.660573</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1575611687497855</v>
+        <v>0.1434526656063196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02678633427759067</v>
+        <v>0.02938208546148469</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4692807579.855859</v>
+        <v>4548383093.620201</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08745615288113444</v>
+        <v>0.09855407907434836</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04747061679434672</v>
+        <v>0.05040999709637738</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>83</v>
+      </c>
+      <c r="J78" t="n">
+        <v>165</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1611495207.534363</v>
+        <v>1360897915.399297</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1723249640412094</v>
+        <v>0.136536412477773</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02975939976462492</v>
+        <v>0.02529562956660371</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5259219305.32827</v>
+        <v>5280036345.417279</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07376637505097007</v>
+        <v>0.1103409175295366</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03255545601992155</v>
+        <v>0.03697137785611399</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>80</v>
+      </c>
+      <c r="J80" t="n">
+        <v>165</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3944217349.27527</v>
+        <v>4034012971.425297</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1279973008678705</v>
+        <v>0.1027667669657331</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03145321924329644</v>
+        <v>0.02961169821738394</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>76</v>
+      </c>
+      <c r="J81" t="n">
+        <v>164</v>
+      </c>
+      <c r="K81" t="n">
+        <v>95.41295420060943</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3460718372.796731</v>
+        <v>5607554221.039903</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1971272453264542</v>
+        <v>0.1749851057891892</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02883794002092277</v>
+        <v>0.01849704621642479</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>120</v>
+      </c>
+      <c r="J82" t="n">
+        <v>165</v>
+      </c>
+      <c r="K82" t="n">
+        <v>142.4231190346749</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2367919871.175051</v>
+        <v>1962599351.56316</v>
       </c>
       <c r="F83" t="n">
-        <v>0.112598047278223</v>
+        <v>0.1331513105602497</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04462196416234614</v>
+        <v>0.02976592796151398</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2214089001.078562</v>
+        <v>2283089482.294283</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07497202714088678</v>
+        <v>0.0987766888477823</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0455782617948145</v>
+        <v>0.0497946870522854</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3133728184.426282</v>
+        <v>3261866857.836435</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1646071923358951</v>
+        <v>0.1490588350046756</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03630235656940877</v>
+        <v>0.04106568178531287</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>162</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2803360404.605223</v>
+        <v>2080928329.754327</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1617518728162049</v>
+        <v>0.1557084212377477</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01764182705559071</v>
+        <v>0.02150597315450921</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1078915062.800489</v>
+        <v>955288312.3489478</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1699370914927823</v>
+        <v>0.1511717249938462</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04298360035490813</v>
+        <v>0.03699479432465858</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3404978103.891473</v>
+        <v>2395743750.168302</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1170089965206184</v>
+        <v>0.138623793622985</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03065033112420208</v>
+        <v>0.0364342387596665</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2786639214.383269</v>
+        <v>2994973302.719508</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1177453635753851</v>
+        <v>0.1027197502302244</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02684670471066925</v>
+        <v>0.04074748309632045</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1717578809.783986</v>
+        <v>2097939758.504163</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1082914453801033</v>
+        <v>0.09061452763637652</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05342510883030095</v>
+        <v>0.04414364749790883</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1751242913.656431</v>
+        <v>1268401925.965687</v>
       </c>
       <c r="F91" t="n">
-        <v>0.136534234890818</v>
+        <v>0.1561258648724114</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06071701442727561</v>
+        <v>0.05615559786835102</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1982792220.488404</v>
+        <v>1856322794.475474</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08824361982450708</v>
+        <v>0.09315331006400433</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04648476314504595</v>
+        <v>0.04730785595325089</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3669498206.773184</v>
+        <v>5019624507.636847</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1237053692995887</v>
+        <v>0.1420221347841432</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05217694241101292</v>
+        <v>0.04056961737086962</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>74</v>
+      </c>
+      <c r="J93" t="n">
+        <v>164</v>
+      </c>
+      <c r="K93" t="n">
+        <v>126.1716824377139</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1618492930.6051</v>
+        <v>2171430460.512557</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1684771803123591</v>
+        <v>0.152977785376454</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03919365836517798</v>
+        <v>0.0279969276942623</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2933106033.006551</v>
+        <v>2198260948.564937</v>
       </c>
       <c r="F95" t="n">
-        <v>0.132966167104446</v>
+        <v>0.1141802251600975</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03995857115195682</v>
+        <v>0.04232526294095382</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2140318098.501066</v>
+        <v>1469026197.323504</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242304029765086</v>
+        <v>0.1274601752235019</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04495021174591901</v>
+        <v>0.02984877460791011</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4666770761.463473</v>
+        <v>3625720133.197735</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1607640899057291</v>
+        <v>0.1585615952830248</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02871509513351501</v>
+        <v>0.02300913195828691</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>79</v>
+      </c>
+      <c r="J97" t="n">
+        <v>165</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3801957788.885108</v>
+        <v>2598204759.220176</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09054177013616296</v>
+        <v>0.1138608393505521</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02853183011829181</v>
+        <v>0.02411940286831385</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>39</v>
+      </c>
+      <c r="J98" t="n">
+        <v>163</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3109417074.484848</v>
+        <v>3118582616.59295</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1369201424057197</v>
+        <v>0.1118542431880163</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03435745126878207</v>
+        <v>0.02913821166099493</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3199739877.303866</v>
+        <v>4439963775.97872</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1660846188530752</v>
+        <v>0.1325497264531952</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02274224146352683</v>
+        <v>0.02418716550140588</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>69</v>
+      </c>
+      <c r="J100" t="n">
+        <v>164</v>
+      </c>
+      <c r="K100" t="n">
+        <v>124.8996550689921</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3411476195.099174</v>
+        <v>3365549807.979716</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1654737768947933</v>
+        <v>0.1899936140732313</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03930825105400127</v>
+        <v>0.04630018883399675</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>163</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
